--- a/ig/main/observations-summary.xlsx
+++ b/ig/main/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>Profile</t>
   </si>
@@ -110,18 +110,12 @@
     <t>null#85354-9</t>
   </si>
   <si>
-    <t>dateTime, Period</t>
-  </si>
-  <si>
     <t>LOINC#8480-6</t>
   </si>
   <si>
     <t>LOINC#8462-4</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>LOINC#8478-0</t>
   </si>
   <si>
@@ -134,6 +128,15 @@
     <t>null#9843-4</t>
   </si>
   <si>
+    <t>fr-core-observation-heartrate</t>
+  </si>
+  <si>
+    <t>FR Core Observation Heart Rate Profile</t>
+  </si>
+  <si>
+    <t>null#8867-4</t>
+  </si>
+  <si>
     <t>fr-core-observation-resp-rate</t>
   </si>
   <si>
@@ -150,15 +153,6 @@
   </si>
   <si>
     <t>null#2708-6</t>
-  </si>
-  <si>
-    <t>fr-core-observation-heartrate</t>
-  </si>
-  <si>
-    <t>FR Core Observation Heart Rate Profile</t>
-  </si>
-  <si>
-    <t>null#8867-4</t>
   </si>
 </sst>
 </file>
@@ -493,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>14</v>
@@ -540,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>19</v>
@@ -610,24 +604,24 @@
         <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -650,19 +644,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -685,19 +679,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -720,19 +714,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
